--- a/Content/ExcelFiles/Kết quả Thực Tập Sản Xuất.xlsx
+++ b/Content/ExcelFiles/Kết quả Thực Tập Sản Xuất.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B888CBD-3A6A-4B78-A465-3E14806760DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ECE9A5-6B66-4A0C-B9EA-BF7720B7972C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{982FC473-FA66-401E-B0C7-4BF774482B5A}"/>
   </bookViews>
@@ -54,18 +54,6 @@
     <t>0801-01</t>
   </si>
   <si>
-    <t>0805-01</t>
-  </si>
-  <si>
-    <t>0803-01</t>
-  </si>
-  <si>
-    <t>0808-01</t>
-  </si>
-  <si>
-    <t>0802-01</t>
-  </si>
-  <si>
     <t>DT001</t>
   </si>
   <si>
@@ -169,13 +157,25 @@
   </si>
   <si>
     <t>DT041</t>
+  </si>
+  <si>
+    <t>0801-02</t>
+  </si>
+  <si>
+    <t>0801-03</t>
+  </si>
+  <si>
+    <t>0801-04</t>
+  </si>
+  <si>
+    <t>0801-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -210,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -233,15 +239,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,15 +582,15 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,455 +607,455 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>7.64</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
         <v>4.6399999999999997</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>5.3</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>5.2</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>9</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6">
       <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
         <v>4</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
         <v>4.7</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>6.4</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6">
       <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <v>7.64</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
         <v>4.6399999999999997</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6">
       <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>5.3</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6">
       <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>5.2</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
         <v>9</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6">
       <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.6">
       <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2">
         <v>5</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.6">
       <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2">
         <v>8</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6">
       <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
         <v>4</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6">
       <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
         <v>4.7</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6">
       <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
+      <c r="B23" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>6.4</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6">
       <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>7.64</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6">
       <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1">
         <v>4.6399999999999997</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6">
       <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>5.3</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.6">
       <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>5.2</v>
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.6">
       <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>9</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.6">
       <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
+      <c r="B29" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.6">
       <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
+      <c r="B30" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>5</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.6">
       <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
+      <c r="B31" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>8</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.6">
       <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
+      <c r="B32" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="2">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1">
         <v>4</v>
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.6">
       <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
-        <v>9</v>
+      <c r="B33" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
         <v>4.7</v>
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.6">
       <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
+      <c r="B34" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2">
         <v>6.4</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.6">
       <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
+      <c r="B35" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="2">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1">
         <v>4.7</v>
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.6">
       <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
+      <c r="B36" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2">
         <v>6.4</v>
